--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="105">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,7 +49,10 @@
     <t>crude</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>died</t>
@@ -58,78 +61,72 @@
     <t>forced</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>fear</t>
   </si>
   <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>shame</t>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -139,12 +136,12 @@
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
@@ -157,91 +154,94 @@
     <t>special</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>friend</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>strong</t>
+    <t>ensure</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>healthy</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>energy</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>please</t>
@@ -253,34 +253,22 @@
     <t>giving</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>available</t>
-  </si>
-  <si>
     <t>key</t>
   </si>
   <si>
+    <t>helping</t>
+  </si>
+  <si>
     <t>give</t>
   </si>
   <si>
-    <t>helping</t>
+    <t>increased</t>
   </si>
   <si>
     <t>want</t>
@@ -289,58 +277,55 @@
     <t>essential</t>
   </si>
   <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>grocery</t>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>consumer</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>stay</t>
+    <t>san</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>toilet</t>
+    <t>co</t>
   </si>
   <si>
     <t>food</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>prices</t>
   </si>
   <si>
     <t>corona</t>
@@ -701,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -709,10 +694,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -791,16 +776,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -812,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -841,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -862,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -870,13 +855,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9117647058823529</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -888,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -912,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -920,13 +905,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7368421052631579</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -938,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -962,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -970,13 +955,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7307692307692307</v>
+        <v>0.7465753424657534</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -988,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7">
         <v>0.8571428571428571</v>
@@ -1020,13 +1005,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7241379310344828</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1038,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>0.8414634146341463</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1062,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1070,13 +1055,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7222222222222222</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1088,10 +1073,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9">
         <v>0.8333333333333334</v>
@@ -1120,13 +1105,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1138,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K10">
-        <v>0.828125</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L10">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M10">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1162,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1170,13 +1155,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.702054794520548</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C11">
-        <v>205</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>205</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1188,19 +1173,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>0.8148148148148148</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1212,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1220,13 +1205,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6538461538461539</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1238,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12">
-        <v>0.8103448275862069</v>
+        <v>0.7890625</v>
       </c>
       <c r="L12">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="M12">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1262,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1270,13 +1255,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6052631578947368</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1288,19 +1273,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="M13">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1312,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1320,13 +1305,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5897435897435898</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1338,19 +1323,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>0.7887323943661971</v>
+        <v>0.775</v>
       </c>
       <c r="L14">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="M14">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1362,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1370,37 +1355,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5806451612903226</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C15">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>18</v>
       </c>
-      <c r="D15">
-        <v>18</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>13</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K15">
-        <v>0.7872340425531915</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1412,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1420,49 +1405,49 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C16">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>19</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16">
+        <v>0.746031746031746</v>
+      </c>
+      <c r="L16">
+        <v>47</v>
+      </c>
+      <c r="M16">
+        <v>47</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>16</v>
-      </c>
-      <c r="D16">
-        <v>16</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>14</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="L16">
-        <v>22</v>
-      </c>
-      <c r="M16">
-        <v>22</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1470,13 +1455,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5128205128205128</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1488,19 +1473,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>0.7727272727272727</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1520,13 +1505,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4324324324324325</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1538,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1562,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1570,13 +1555,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4266666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C19">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1588,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>0.7358490566037735</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L19">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M19">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1612,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1620,13 +1605,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4054054054054054</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1638,19 +1623,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K20">
-        <v>0.7254901960784313</v>
+        <v>0.69375</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="M20">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1662,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1670,37 +1655,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3825503355704698</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="C21">
+        <v>23</v>
+      </c>
+      <c r="D21">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>36</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D21">
-        <v>57</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>92</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="K21">
-        <v>0.7142857142857143</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L21">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="M21">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1712,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1720,13 +1705,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3662790697674418</v>
+        <v>0.3837209302325582</v>
       </c>
       <c r="C22">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="D22">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1738,19 +1723,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K22">
-        <v>0.69375</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L22">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="M22">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1762,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1770,13 +1755,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3529411764705883</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1788,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K23">
-        <v>0.6702127659574468</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L23">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="M23">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1812,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1820,13 +1805,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3333333333333333</v>
+        <v>0.348993288590604</v>
       </c>
       <c r="C24">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D24">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1838,19 +1823,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K24">
         <v>0.6666666666666666</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M24">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1862,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1870,13 +1855,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3116883116883117</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1888,19 +1873,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K25">
-        <v>0.6470588235294118</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1912,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1920,13 +1905,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.288135593220339</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1938,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K26">
         <v>0.6296296296296297</v>
@@ -1970,13 +1955,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2745098039215687</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1988,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K27">
-        <v>0.6222222222222222</v>
+        <v>0.6161879895561357</v>
       </c>
       <c r="L27">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="M27">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2012,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>17</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2020,13 +2005,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2542372881355932</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2038,19 +2023,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K28">
-        <v>0.6135770234986945</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L28">
-        <v>235</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>235</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2062,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>148</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2070,13 +2055,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2321428571428572</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2088,19 +2073,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K29">
-        <v>0.611764705882353</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L29">
-        <v>208</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>208</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2112,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>132</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2120,49 +2105,49 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2222222222222222</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="C30">
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <v>18</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>59</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30">
+        <v>0.6</v>
+      </c>
+      <c r="L30">
+        <v>30</v>
+      </c>
+      <c r="M30">
+        <v>30</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>20</v>
-      </c>
-      <c r="D30">
-        <v>20</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>70</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K30">
-        <v>0.575</v>
-      </c>
-      <c r="L30">
-        <v>23</v>
-      </c>
-      <c r="M30">
-        <v>23</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2170,13 +2155,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2103174603174603</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C31">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2188,19 +2173,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K31">
-        <v>0.5617977528089888</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L31">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2212,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2220,13 +2205,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1625</v>
+        <v>0.1179624664879357</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D32">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2238,112 +2223,88 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>67</v>
+        <v>329</v>
       </c>
       <c r="J32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32">
+        <v>0.5842696629213483</v>
+      </c>
+      <c r="L32">
+        <v>52</v>
+      </c>
+      <c r="M32">
+        <v>52</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K32">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="L32">
-        <v>13</v>
-      </c>
-      <c r="M32">
-        <v>13</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.1233243967828418</v>
-      </c>
-      <c r="C33">
-        <v>46</v>
-      </c>
-      <c r="D33">
-        <v>46</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>327</v>
-      </c>
-      <c r="J33" s="1" t="s">
+      <c r="K33">
+        <v>0.5676470588235294</v>
+      </c>
+      <c r="L33">
+        <v>193</v>
+      </c>
+      <c r="M33">
+        <v>193</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K33">
-        <v>0.5322033898305085</v>
-      </c>
-      <c r="L33">
-        <v>157</v>
-      </c>
-      <c r="M33">
-        <v>157</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="J34" s="1" t="s">
+      <c r="K34">
+        <v>0.5627118644067797</v>
+      </c>
+      <c r="L34">
+        <v>166</v>
+      </c>
+      <c r="M34">
+        <v>166</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="K34">
-        <v>0.5</v>
-      </c>
-      <c r="L34">
-        <v>25</v>
-      </c>
-      <c r="M34">
-        <v>25</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="J35" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="K35">
         <v>0.4923076923076923</v>
@@ -2367,246 +2328,246 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K36">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="L36">
+        <v>22</v>
+      </c>
+      <c r="M36">
+        <v>22</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K36">
-        <v>0.4883720930232558</v>
-      </c>
-      <c r="L36">
+      <c r="K37">
+        <v>0.475</v>
+      </c>
+      <c r="L37">
+        <v>19</v>
+      </c>
+      <c r="M37">
+        <v>19</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>21</v>
       </c>
-      <c r="M36">
-        <v>21</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K37">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="L37">
+      <c r="K38">
+        <v>0.46875</v>
+      </c>
+      <c r="L38">
+        <v>30</v>
+      </c>
+      <c r="M38">
+        <v>30</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K39">
+        <v>0.4657534246575342</v>
+      </c>
+      <c r="L39">
+        <v>34</v>
+      </c>
+      <c r="M39">
+        <v>34</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K40">
+        <v>0.4560669456066946</v>
+      </c>
+      <c r="L40">
+        <v>109</v>
+      </c>
+      <c r="M40">
+        <v>109</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K41">
+        <v>0.3974358974358974</v>
+      </c>
+      <c r="L41">
+        <v>31</v>
+      </c>
+      <c r="M41">
+        <v>31</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K42">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="L42">
         <v>13</v>
       </c>
-      <c r="M37">
+      <c r="M42">
         <v>13</v>
       </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K43">
+        <v>0.375</v>
+      </c>
+      <c r="L43">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K38">
-        <v>0.4516129032258064</v>
-      </c>
-      <c r="L38">
-        <v>14</v>
-      </c>
-      <c r="M38">
-        <v>14</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K39">
-        <v>0.4435146443514644</v>
-      </c>
-      <c r="L39">
-        <v>106</v>
-      </c>
-      <c r="M39">
-        <v>106</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K40">
-        <v>0.4358974358974359</v>
-      </c>
-      <c r="L40">
-        <v>34</v>
-      </c>
-      <c r="M40">
-        <v>34</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K41">
-        <v>0.4242424242424243</v>
-      </c>
-      <c r="L41">
-        <v>14</v>
-      </c>
-      <c r="M41">
-        <v>14</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K42">
-        <v>0.410958904109589</v>
-      </c>
-      <c r="L42">
-        <v>30</v>
-      </c>
-      <c r="M42">
-        <v>30</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
+      <c r="M43">
+        <v>15</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K43">
-        <v>0.390625</v>
-      </c>
-      <c r="L43">
-        <v>25</v>
-      </c>
-      <c r="M43">
-        <v>25</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
+      <c r="K44">
+        <v>0.3285714285714286</v>
+      </c>
+      <c r="L44">
+        <v>23</v>
+      </c>
+      <c r="M44">
+        <v>23</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K44">
-        <v>0.375</v>
-      </c>
-      <c r="L44">
-        <v>15</v>
-      </c>
-      <c r="M44">
-        <v>15</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="K45">
-        <v>0.3714285714285714</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="L45">
         <v>13</v>
@@ -2624,15 +2585,15 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K46">
-        <v>0.3333333333333333</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L46">
         <v>14</v>
@@ -2650,21 +2611,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K47">
-        <v>0.3285714285714286</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="L47">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M47">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2679,18 +2640,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K48">
-        <v>0.3050847457627119</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L48">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M48">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2702,21 +2663,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K49">
-        <v>0.2978723404255319</v>
+        <v>0.1684210526315789</v>
       </c>
       <c r="L49">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M49">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2728,21 +2689,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>33</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K50">
-        <v>0.2295081967213115</v>
+        <v>0.1417322834645669</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M50">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2754,21 +2715,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>47</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K51">
-        <v>0.2203389830508475</v>
+        <v>0.1374045801526718</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M51">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2780,21 +2741,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>46</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K52">
-        <v>0.2</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="L52">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="M52">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2806,21 +2767,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>76</v>
+        <v>363</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K53">
-        <v>0.1259842519685039</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L53">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="M53">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2832,21 +2793,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>111</v>
+        <v>368</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K54">
-        <v>0.1162790697674419</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L54">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M54">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2858,21 +2819,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>190</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K55">
-        <v>0.1153846153846154</v>
+        <v>0.0894854586129754</v>
       </c>
       <c r="L55">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="M55">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2884,21 +2845,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>368</v>
+        <v>814</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K56">
-        <v>0.1124401913875598</v>
+        <v>0.08372093023255814</v>
       </c>
       <c r="L56">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="M56">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2910,21 +2871,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>371</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K57">
-        <v>0.1068702290076336</v>
+        <v>0.07975460122699386</v>
       </c>
       <c r="L57">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M57">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2936,47 +2897,47 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>117</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K58">
-        <v>0.09742441209406495</v>
+        <v>0.06659267480577137</v>
       </c>
       <c r="L58">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="M58">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="N58">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>806</v>
+        <v>841</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K59">
-        <v>0.08837209302325581</v>
+        <v>0.06046511627906977</v>
       </c>
       <c r="L59">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M59">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2988,21 +2949,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K60">
-        <v>0.0872093023255814</v>
+        <v>0.05519480519480519</v>
       </c>
       <c r="L60">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M60">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3014,47 +2975,47 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>157</v>
+        <v>291</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K61">
-        <v>0.06222222222222222</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="L61">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="M61">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="N61">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O61">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>844</v>
+        <v>616</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K62">
-        <v>0.0581039755351682</v>
+        <v>0.04892966360856269</v>
       </c>
       <c r="L62">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M62">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3066,21 +3027,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K63">
-        <v>0.05384615384615385</v>
+        <v>0.0411522633744856</v>
       </c>
       <c r="L63">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M63">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3092,241 +3053,137 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>615</v>
+        <v>466</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K64">
-        <v>0.04220779220779221</v>
+        <v>0.03743565746373421</v>
       </c>
       <c r="L64">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M64">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>295</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K65">
-        <v>0.04036908881199539</v>
+        <v>0.03233256351039261</v>
       </c>
       <c r="L65">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M65">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>832</v>
+        <v>838</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K66">
-        <v>0.03909465020576132</v>
+        <v>0.01804705124073477</v>
       </c>
       <c r="L66">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="M66">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>467</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K67">
-        <v>0.03366058906030855</v>
+        <v>0.01763485477178423</v>
       </c>
       <c r="L67">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="M67">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="N67">
-        <v>0.95</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O67">
-        <v>0.05000000000000004</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>2067</v>
+        <v>947</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K68">
-        <v>0.02654867256637168</v>
+        <v>0.007523510971786834</v>
       </c>
       <c r="L68">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M68">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="N68">
-        <v>0.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O68">
-        <v>0.12</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="69" spans="10:17">
-      <c r="J69" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K69">
-        <v>0.02072538860103627</v>
-      </c>
-      <c r="L69">
-        <v>20</v>
-      </c>
-      <c r="M69">
-        <v>23</v>
-      </c>
-      <c r="N69">
-        <v>0.87</v>
-      </c>
-      <c r="O69">
-        <v>0.13</v>
-      </c>
-      <c r="P69" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q69">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="70" spans="10:17">
-      <c r="J70" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K70">
-        <v>0.01903839948370442</v>
-      </c>
-      <c r="L70">
-        <v>59</v>
-      </c>
-      <c r="M70">
-        <v>67</v>
-      </c>
-      <c r="N70">
-        <v>0.88</v>
-      </c>
-      <c r="O70">
-        <v>0.12</v>
-      </c>
-      <c r="P70" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q70">
-        <v>3040</v>
-      </c>
-    </row>
-    <row r="71" spans="10:17">
-      <c r="J71" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K71">
-        <v>0.01207937877480587</v>
-      </c>
-      <c r="L71">
-        <v>14</v>
-      </c>
-      <c r="M71">
-        <v>16</v>
-      </c>
-      <c r="N71">
-        <v>0.88</v>
-      </c>
-      <c r="O71">
-        <v>0.12</v>
-      </c>
-      <c r="P71" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q71">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="72" spans="10:17">
-      <c r="J72" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K72">
-        <v>0.008153026026967701</v>
-      </c>
-      <c r="L72">
-        <v>26</v>
-      </c>
-      <c r="M72">
-        <v>38</v>
-      </c>
-      <c r="N72">
-        <v>0.68</v>
-      </c>
-      <c r="O72">
-        <v>0.32</v>
-      </c>
-      <c r="P72" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q72">
-        <v>3163</v>
+        <v>3166</v>
       </c>
     </row>
   </sheetData>
